--- a/EJBComponents/ImageProcessingBenchmark_5/stats/ExcelSheets/ImagePreparationTimes.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_5/stats/ExcelSheets/ImagePreparationTimes.xlsx
@@ -246,36 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,6 +259,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +341,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
-              <a:t>Preparation Time of Images </a:t>
+              <a:t>Preparation Times of Images  - Local Mode</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
           </a:p>
@@ -351,8 +351,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40243113132069142"/>
-          <c:y val="5.7524401160226404E-3"/>
+          <c:x val="0.31295373159748302"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -372,9 +372,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.0417757672607162E-2"/>
-          <c:y val="5.273289031240392E-2"/>
+          <c:y val="4.2666120109364311E-2"/>
           <c:w val="0.90510744663137499"/>
-          <c:h val="0.88659981531043641"/>
+          <c:h val="0.8865998153104363"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1210,11 +1210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110516864"/>
-        <c:axId val="110544000"/>
+        <c:axId val="111647360"/>
+        <c:axId val="112137344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110516864"/>
+        <c:axId val="111647360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110544000"/>
+        <c:crossAx val="112137344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1338,7 +1338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110544000"/>
+        <c:axId val="112137344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1453,7 +1453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110516864"/>
+        <c:crossAx val="111647360"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1580,7 +1580,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
-              <a:t>Preparation Time of Images </a:t>
+              <a:t>Preparation Times of Images  - Remote Mode</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
           </a:p>
@@ -1590,8 +1590,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37810445442176072"/>
-          <c:y val="7.1905501450283005E-3"/>
+          <c:x val="0.32048877486498867"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1611,9 +1611,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.0417757672607162E-2"/>
-          <c:y val="5.273289031240392E-2"/>
+          <c:y val="4.2666120109364311E-2"/>
           <c:w val="0.90510744663137499"/>
-          <c:h val="0.88659981531043641"/>
+          <c:h val="0.896666585513476"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2450,11 +2450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112167552"/>
-        <c:axId val="112182400"/>
+        <c:axId val="112188032"/>
+        <c:axId val="112215168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112167552"/>
+        <c:axId val="112188032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112182400"/>
+        <c:crossAx val="112215168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2578,7 +2578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112182400"/>
+        <c:axId val="112215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -2693,7 +2693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112167552"/>
+        <c:crossAx val="112188032"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -2820,7 +2820,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
-              <a:t>Preparation Times of Images </a:t>
+              <a:t>Trends in the Preparation Times of Images - Local Mode </a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
           </a:p>
@@ -2830,7 +2830,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36787849349421681"/>
+          <c:x val="0.26020137852762903"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -2850,9 +2850,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0417757672607162E-2"/>
+          <c:x val="8.5903150208928261E-2"/>
           <c:y val="4.6980450196381293E-2"/>
-          <c:w val="0.90510744663137499"/>
+          <c:w val="0.879542463424974"/>
           <c:h val="0.88104841760293795"/>
         </c:manualLayout>
       </c:layout>
@@ -2888,38 +2888,37 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$53:$AG$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+            <c:strRef>
+              <c:f>Sheet1!$I$92:$N$92</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Image3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Image5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Image1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Image6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Image2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Image4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$56:$AG$56</c:f>
+              <c:f>Sheet1!$B$56:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>14.41</c:v>
                 </c:pt>
@@ -2973,38 +2972,37 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$53:$AG$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+            <c:strRef>
+              <c:f>Sheet1!$I$92:$N$92</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Image3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Image5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Image1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Image6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Image2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Image4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$63:$AG$63</c:f>
+              <c:f>Sheet1!$B$63:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15.287000000000001</c:v>
                 </c:pt>
@@ -3058,38 +3056,37 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$53:$AG$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+            <c:strRef>
+              <c:f>Sheet1!$I$92:$N$92</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Image3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Image5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Image1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Image6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Image2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Image4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$71:$AG$71</c:f>
+              <c:f>Sheet1!$B$71:$G$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>14.461</c:v>
                 </c:pt>
@@ -3143,38 +3140,37 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$53:$AG$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+            <c:strRef>
+              <c:f>Sheet1!$I$92:$N$92</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Image3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Image5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Image1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Image6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Image2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Image4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$78:$AG$78</c:f>
+              <c:f>Sheet1!$B$78:$G$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.9240000000000004</c:v>
                 </c:pt>
@@ -3208,11 +3204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112488448"/>
-        <c:axId val="112490752"/>
+        <c:axId val="112246784"/>
+        <c:axId val="112249088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112488448"/>
+        <c:axId val="112246784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,7 +3261,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ" sz="1600"/>
-                  <a:t>Image Index</a:t>
+                  <a:t>Image Name</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3274,8 +3270,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43387804537243624"/>
-              <c:y val="0.96759938104650245"/>
+              <c:x val="0.44666048947065201"/>
+              <c:y val="0.9675993378716703"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3308,7 +3304,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3323,7 +3319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112490752"/>
+        <c:crossAx val="112249088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3331,10 +3327,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112490752"/>
+        <c:axId val="112249088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="48"/>
+          <c:max val="360"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3431,7 +3427,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3446,11 +3442,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112488448"/>
+        <c:crossAx val="112246784"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
-        <c:minorUnit val="2"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3573,7 +3569,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
-              <a:t>Preparation Times of Images - Remote Mode </a:t>
+              <a:t>Trends in the Preparation Times of Images - Remote Mode </a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
           </a:p>
@@ -3583,7 +3579,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3142500369209742"/>
+          <c:x val="0.25982744010645747"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -3603,9 +3599,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0417757672607162E-2"/>
+          <c:x val="7.9486606134708065E-2"/>
           <c:y val="4.6980450196381293E-2"/>
-          <c:w val="0.90510744663137499"/>
+          <c:w val="0.88590222486402082"/>
           <c:h val="0.88104841760293795"/>
         </c:manualLayout>
       </c:layout>
@@ -3957,11 +3953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112800512"/>
-        <c:axId val="112802816"/>
+        <c:axId val="113095424"/>
+        <c:axId val="113097728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112800512"/>
+        <c:axId val="113095424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4014,8 +4010,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ" sz="1600"/>
-                  <a:t>Image Index</a:t>
+                  <a:t>Image </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> Name</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4023,8 +4024,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4664315883432647"/>
-              <c:y val="0.9675993378716703"/>
+              <c:x val="0.4447013914897005"/>
+              <c:y val="0.9661863149378247"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4072,7 +4073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112802816"/>
+        <c:crossAx val="113097728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4080,10 +4081,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112802816"/>
+        <c:axId val="113097728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="48"/>
+          <c:max val="360"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4195,11 +4196,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112800512"/>
+        <c:crossAx val="113095424"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
-        <c:minorUnit val="2"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4848,15 +4849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>348475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>326063</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>585761</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:colOff>563349</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146477</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4880,15 +4881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>121228</xdr:rowOff>
+      <xdr:colOff>23430</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>271922</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>189263</xdr:rowOff>
+      <xdr:colOff>260716</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8252,8 +8253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:G79"/>
+    <sheetView tabSelected="1" topLeftCell="AA20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW99" sqref="AW99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8262,18 +8263,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -9679,81 +9680,81 @@
       </c>
     </row>
     <row r="51" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
-      <c r="AD52" s="25"/>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="25"/>
-      <c r="AG52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="10">
         <v>1</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" ref="D53:AG53" si="0">C53+1</f>
+        <f t="shared" ref="D53:G53" si="0">C53+1</f>
         <v>3</v>
       </c>
       <c r="E53" s="10">
@@ -9777,35 +9778,35 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="1">
@@ -9826,35 +9827,35 @@
       <c r="G54" s="1">
         <v>106595</v>
       </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1">
@@ -9875,32 +9876,32 @@
       <c r="G55" s="1">
         <v>89982</v>
       </c>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="27"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="17"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
@@ -9927,32 +9928,32 @@
         <f t="shared" si="1"/>
         <v>106.595</v>
       </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="17"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
@@ -9979,100 +9980,100 @@
         <f t="shared" si="1"/>
         <v>89.981999999999999</v>
       </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
-      <c r="AF57" s="27"/>
-      <c r="AG57" s="27"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-      <c r="AF58" s="27"/>
-      <c r="AG58" s="27"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="25"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25"/>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
-      <c r="AD59" s="25"/>
-      <c r="AE59" s="25"/>
-      <c r="AF59" s="25"/>
-      <c r="AG59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="15"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="10">
         <v>1</v>
       </c>
@@ -10081,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="10">
-        <f t="shared" ref="D60:R60" si="2">C60+1</f>
+        <f t="shared" ref="D60:G60" si="2">C60+1</f>
         <v>3</v>
       </c>
       <c r="E60" s="10">
@@ -10096,35 +10097,35 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="26"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="16"/>
+      <c r="AE60" s="16"/>
+      <c r="AF60" s="16"/>
+      <c r="AG60" s="16"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="1">
@@ -10145,35 +10146,35 @@
       <c r="G61" s="1">
         <v>122842</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="27"/>
-      <c r="AF61" s="27"/>
-      <c r="AG61" s="27"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="1">
@@ -10194,32 +10195,32 @@
       <c r="G62" s="1">
         <v>89860</v>
       </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="27"/>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="27"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
@@ -10246,32 +10247,32 @@
         <f t="shared" si="3"/>
         <v>122.842</v>
       </c>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="27"/>
-      <c r="AF63" s="27"/>
-      <c r="AG63" s="27"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
@@ -10298,137 +10299,137 @@
         <f t="shared" si="4"/>
         <v>89.86</v>
       </c>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="27"/>
-      <c r="AF64" s="27"/>
-      <c r="AG64" s="27"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-      <c r="AF65" s="27"/>
-      <c r="AG65" s="27"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="17"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="17"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="25"/>
-      <c r="AD67" s="25"/>
-      <c r="AE67" s="25"/>
-      <c r="AF67" s="25"/>
-      <c r="AG67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="10">
         <v>1</v>
       </c>
@@ -10437,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="10">
-        <f t="shared" ref="D68:R68" si="5">C68+1</f>
+        <f t="shared" ref="D68:G68" si="5">C68+1</f>
         <v>3</v>
       </c>
       <c r="E68" s="10">
@@ -10452,35 +10453,35 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="26"/>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="26"/>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="26"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="26"/>
-      <c r="AF68" s="26"/>
-      <c r="AG68" s="26"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="16"/>
+      <c r="AE68" s="16"/>
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="16"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="1">
@@ -10501,35 +10502,35 @@
       <c r="G69" s="1">
         <v>89354</v>
       </c>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="27"/>
-      <c r="AF69" s="27"/>
-      <c r="AG69" s="27"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="17"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="17"/>
+      <c r="AF69" s="17"/>
+      <c r="AG69" s="17"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="1">
@@ -10550,32 +10551,32 @@
       <c r="G70" s="1">
         <v>89852</v>
       </c>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="27"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="27"/>
-      <c r="AE70" s="27"/>
-      <c r="AF70" s="27"/>
-      <c r="AG70" s="27"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="17"/>
+      <c r="AC70" s="17"/>
+      <c r="AD70" s="17"/>
+      <c r="AE70" s="17"/>
+      <c r="AF70" s="17"/>
+      <c r="AG70" s="17"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
@@ -10602,32 +10603,32 @@
         <f t="shared" si="6"/>
         <v>89.353999999999999</v>
       </c>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="27"/>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="27"/>
-      <c r="AE71" s="27"/>
-      <c r="AF71" s="27"/>
-      <c r="AG71" s="27"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="17"/>
+      <c r="AC71" s="17"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="17"/>
+      <c r="AF71" s="17"/>
+      <c r="AG71" s="17"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
@@ -10654,100 +10655,100 @@
         <f t="shared" si="7"/>
         <v>89.852000000000004</v>
       </c>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="27"/>
-      <c r="AE72" s="27"/>
-      <c r="AF72" s="27"/>
-      <c r="AG72" s="27"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="27"/>
-      <c r="AE73" s="27"/>
-      <c r="AF73" s="27"/>
-      <c r="AG73" s="27"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+      <c r="AB73" s="17"/>
+      <c r="AC73" s="17"/>
+      <c r="AD73" s="17"/>
+      <c r="AE73" s="17"/>
+      <c r="AF73" s="17"/>
+      <c r="AG73" s="17"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="25"/>
-      <c r="V74" s="25"/>
-      <c r="W74" s="25"/>
-      <c r="X74" s="25"/>
-      <c r="Y74" s="25"/>
-      <c r="Z74" s="25"/>
-      <c r="AA74" s="25"/>
-      <c r="AB74" s="25"/>
-      <c r="AC74" s="25"/>
-      <c r="AD74" s="25"/>
-      <c r="AE74" s="25"/>
-      <c r="AF74" s="25"/>
-      <c r="AG74" s="25"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="10">
         <v>1</v>
       </c>
@@ -10756,7 +10757,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" ref="D75:R75" si="8">C75+1</f>
+        <f t="shared" ref="D75:G75" si="8">C75+1</f>
         <v>3</v>
       </c>
       <c r="E75" s="10">
@@ -10771,35 +10772,35 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="26"/>
-      <c r="T75" s="26"/>
-      <c r="U75" s="26"/>
-      <c r="V75" s="26"/>
-      <c r="W75" s="26"/>
-      <c r="X75" s="26"/>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="26"/>
-      <c r="AA75" s="26"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="26"/>
-      <c r="AE75" s="26"/>
-      <c r="AF75" s="26"/>
-      <c r="AG75" s="26"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
+      <c r="AE75" s="16"/>
+      <c r="AF75" s="16"/>
+      <c r="AG75" s="16"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="1">
@@ -10820,35 +10821,35 @@
       <c r="G76" s="1">
         <v>18238</v>
       </c>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
-      <c r="T76" s="27"/>
-      <c r="U76" s="27"/>
-      <c r="V76" s="27"/>
-      <c r="W76" s="27"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="27"/>
-      <c r="AE76" s="27"/>
-      <c r="AF76" s="27"/>
-      <c r="AG76" s="27"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17"/>
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="17"/>
+      <c r="AD76" s="17"/>
+      <c r="AE76" s="17"/>
+      <c r="AF76" s="17"/>
+      <c r="AG76" s="17"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="1">
@@ -10869,32 +10870,32 @@
       <c r="G77" s="1">
         <v>24939</v>
       </c>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="27"/>
-      <c r="AF77" s="27"/>
-      <c r="AG77" s="27"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="17"/>
+      <c r="AB77" s="17"/>
+      <c r="AC77" s="17"/>
+      <c r="AD77" s="17"/>
+      <c r="AE77" s="17"/>
+      <c r="AF77" s="17"/>
+      <c r="AG77" s="17"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
@@ -10921,32 +10922,32 @@
         <f t="shared" si="9"/>
         <v>18.238</v>
       </c>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="27"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="27"/>
-      <c r="AD78" s="27"/>
-      <c r="AE78" s="27"/>
-      <c r="AF78" s="27"/>
-      <c r="AG78" s="27"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="17"/>
+      <c r="AC78" s="17"/>
+      <c r="AD78" s="17"/>
+      <c r="AE78" s="17"/>
+      <c r="AF78" s="17"/>
+      <c r="AG78" s="17"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
@@ -10973,153 +10974,153 @@
         <f t="shared" si="10"/>
         <v>24.939</v>
       </c>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="27"/>
-      <c r="AE79" s="27"/>
-      <c r="AF79" s="27"/>
-      <c r="AG79" s="27"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="17"/>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="27"/>
-      <c r="U80" s="27"/>
-      <c r="V80" s="27"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="27"/>
-      <c r="AD80" s="27"/>
-      <c r="AE80" s="27"/>
-      <c r="AF80" s="27"/>
-      <c r="AG80" s="27"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="17"/>
+      <c r="AE80" s="17"/>
+      <c r="AF80" s="17"/>
+      <c r="AG80" s="17"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="27"/>
-      <c r="AE81" s="27"/>
-      <c r="AF81" s="27"/>
-      <c r="AG81" s="27"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="17"/>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="17"/>
+      <c r="AG81" s="17"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="27"/>
-      <c r="AF82" s="27"/>
-      <c r="AG82" s="27"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="17"/>
+      <c r="AB82" s="17"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="17"/>
+      <c r="AE82" s="17"/>
+      <c r="AF82" s="17"/>
+      <c r="AG82" s="17"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="24"/>
-      <c r="U83" s="24"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="24"/>
-      <c r="X83" s="24"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="24"/>
-      <c r="AA83" s="24"/>
-      <c r="AB83" s="24"/>
-      <c r="AC83" s="24"/>
-      <c r="AD83" s="24"/>
-      <c r="AE83" s="24"/>
-      <c r="AF83" s="24"/>
-      <c r="AG83" s="24"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
@@ -11131,35 +11132,35 @@
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="25"/>
-      <c r="V84" s="25"/>
-      <c r="W84" s="25"/>
-      <c r="X84" s="25"/>
-      <c r="Y84" s="25"/>
-      <c r="Z84" s="25"/>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="25"/>
-      <c r="AD84" s="25"/>
-      <c r="AE84" s="25"/>
-      <c r="AF84" s="25"/>
-      <c r="AG84" s="25"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="10">
         <v>1</v>
       </c>
@@ -11183,35 +11184,35 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-      <c r="S85" s="26"/>
-      <c r="T85" s="26"/>
-      <c r="U85" s="26"/>
-      <c r="V85" s="26"/>
-      <c r="W85" s="26"/>
-      <c r="X85" s="26"/>
-      <c r="Y85" s="26"/>
-      <c r="Z85" s="26"/>
-      <c r="AA85" s="26"/>
-      <c r="AB85" s="26"/>
-      <c r="AC85" s="26"/>
-      <c r="AD85" s="26"/>
-      <c r="AE85" s="26"/>
-      <c r="AF85" s="26"/>
-      <c r="AG85" s="26"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="16"/>
+      <c r="AC85" s="16"/>
+      <c r="AD85" s="16"/>
+      <c r="AE85" s="16"/>
+      <c r="AF85" s="16"/>
+      <c r="AG85" s="16"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="2"/>
@@ -11220,35 +11221,35 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="27"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="17"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="17"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="17"/>
+      <c r="AE86" s="17"/>
+      <c r="AF86" s="17"/>
+      <c r="AG86" s="17"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="11"/>
@@ -11257,32 +11258,32 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="27"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="17"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="17"/>
+      <c r="AG87" s="17"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
@@ -11291,32 +11292,32 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="17"/>
+      <c r="AE88" s="17"/>
+      <c r="AF88" s="17"/>
+      <c r="AG88" s="17"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
@@ -11325,100 +11326,100 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="27"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="17"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="17"/>
+      <c r="AB89" s="17"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="17"/>
+      <c r="AE89" s="17"/>
+      <c r="AF89" s="17"/>
+      <c r="AG89" s="17"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="27"/>
-      <c r="T90" s="27"/>
-      <c r="U90" s="27"/>
-      <c r="V90" s="27"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="27"/>
-      <c r="AF90" s="27"/>
-      <c r="AG90" s="27"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="25"/>
-      <c r="U91" s="25"/>
-      <c r="V91" s="25"/>
-      <c r="W91" s="25"/>
-      <c r="X91" s="25"/>
-      <c r="Y91" s="25"/>
-      <c r="Z91" s="25"/>
-      <c r="AA91" s="25"/>
-      <c r="AB91" s="25"/>
-      <c r="AC91" s="25"/>
-      <c r="AD91" s="25"/>
-      <c r="AE91" s="25"/>
-      <c r="AF91" s="25"/>
-      <c r="AG91" s="25"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="10">
         <v>1</v>
       </c>
@@ -11442,47 +11443,47 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26" t="s">
+      <c r="H92" s="16"/>
+      <c r="I92" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="26" t="s">
+      <c r="J92" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K92" s="26" t="s">
+      <c r="K92" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="26" t="s">
+      <c r="L92" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M92" s="26" t="s">
+      <c r="M92" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N92" s="26" t="s">
+      <c r="N92" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
-      <c r="AF92" s="26"/>
-      <c r="AG92" s="26"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="16"/>
+      <c r="AC92" s="16"/>
+      <c r="AD92" s="16"/>
+      <c r="AE92" s="16"/>
+      <c r="AF92" s="16"/>
+      <c r="AG92" s="16"/>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="2"/>
@@ -11491,35 +11492,35 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="27"/>
-      <c r="U93" s="27"/>
-      <c r="V93" s="27"/>
-      <c r="W93" s="27"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="27"/>
-      <c r="AC93" s="27"/>
-      <c r="AD93" s="27"/>
-      <c r="AE93" s="27"/>
-      <c r="AF93" s="27"/>
-      <c r="AG93" s="27"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17"/>
+      <c r="AE93" s="17"/>
+      <c r="AF93" s="17"/>
+      <c r="AG93" s="17"/>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="1"/>
@@ -11547,16 +11548,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A66:G66"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A74:G74"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
